--- a/data/trans_dic/CAGE_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CAGE_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01355437026188291</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009944405468207417</v>
+        <v>0.009944405468207414</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.007257243633011253</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005114775703986468</v>
+        <v>0.00473606477135992</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01862166996549589</v>
+        <v>0.01920783893823178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004947889566753814</v>
+        <v>0.004967547925237157</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002023224612331153</v>
+        <v>0.002028383784373974</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002345248565185588</v>
+        <v>0.002325352246663232</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002377042084398022</v>
+        <v>0.002374504122826569</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01530820865086297</v>
+        <v>0.01509830440491464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004918310781457271</v>
+        <v>0.004995547402177027</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01349886542233588</v>
+        <v>0.01364655577248776</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005128057545481872</v>
+        <v>0.00508140187379036</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.008030150483226176</v>
+        <v>0.006446196691453004</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02786822646324219</v>
+        <v>0.0274399645183954</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05406417481027433</v>
+        <v>0.05092450368437752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03185235715985679</v>
+        <v>0.02997780038928385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05780559983496361</v>
+        <v>0.05759923478262921</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02151093804879643</v>
+        <v>0.02084337552161391</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02196086195443966</v>
+        <v>0.02405791960576683</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01994365089660535</v>
+        <v>0.02101494737790074</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1468436888567818</v>
+        <v>0.1493632794926332</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01891208036278687</v>
+        <v>0.02025894033847657</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0313265725370644</v>
+        <v>0.03219772985661992</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02110328218512179</v>
+        <v>0.0207259000412859</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06735269111722876</v>
+        <v>0.06798088945995792</v>
       </c>
     </row>
     <row r="7">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003393959737809679</v>
+        <v>0.003837021850746232</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01191888606229596</v>
+        <v>0.01184764738364704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01314139655826829</v>
+        <v>0.01405924604200451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0114439578532279</v>
+        <v>0.01103693514804314</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.003254283250225937</v>
+        <v>0.003384392689038776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002900167837609071</v>
+        <v>0.003208160550069989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006212295689515188</v>
+        <v>0.006584634605068308</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0104599528914834</v>
+        <v>0.009788695185849712</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.008528341663932688</v>
+        <v>0.008903445410199677</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01778988922555194</v>
+        <v>0.01925675671148587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03412172031759433</v>
+        <v>0.0335471771960469</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03758696631600938</v>
+        <v>0.03903162532802034</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07450623015373362</v>
+        <v>0.07238833971086554</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01462745377429421</v>
+        <v>0.01563497691917318</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.01735451020570675</v>
+        <v>0.01983694993789656</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0342863525374462</v>
+        <v>0.03195055169793905</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01294953521166053</v>
+        <v>0.01268135859866746</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01814980800156972</v>
+        <v>0.01879481332966129</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02454144622074332</v>
+        <v>0.02529344812270431</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04956575614613417</v>
+        <v>0.04856210848654953</v>
       </c>
     </row>
     <row r="10">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002773844083983476</v>
+        <v>0.002908522231223317</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01034427607934492</v>
+        <v>0.01100504394817377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005766591641478242</v>
+        <v>0.005600076612404745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.007204808576302494</v>
+        <v>0.00727217806382479</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002775837469394574</v>
+        <v>0.00277745603280128</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001608466702291604</v>
+        <v>0.00158515004553173</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00533878464065065</v>
+        <v>0.004976715619775643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.003625827518354987</v>
+        <v>0.003848519952873019</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006713313395721001</v>
+        <v>0.007392121838096867</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01677342111374853</v>
+        <v>0.0155569376894638</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03205683727688952</v>
+        <v>0.03278330851850943</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02188723615432967</v>
+        <v>0.0229880640314758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04008697660582904</v>
+        <v>0.04255812950940368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.008366344740199016</v>
+        <v>0.008838668205096375</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.007983623390179918</v>
+        <v>0.009605986820377154</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03890616084905761</v>
+        <v>0.03398802038261876</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.009177776718890774</v>
+        <v>0.008858498139672433</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01597492946666698</v>
+        <v>0.01561068842450295</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01340083159627037</v>
+        <v>0.01310495166874705</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02961101560911965</v>
+        <v>0.03195858572168876</v>
       </c>
     </row>
     <row r="13">
@@ -1109,35 +1109,35 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.01044842768596698</v>
+        <v>0.009871219623320319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006738907422508993</v>
+        <v>0.00765867199131961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007755999071473758</v>
+        <v>0.008187640775964814</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.001691579336265029</v>
+        <v>0.00169511085247041</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003433158747906036</v>
+        <v>0.003442263333347412</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005033997630587905</v>
+        <v>0.004975375644989517</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00538195430596354</v>
+        <v>0.005285335316300636</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.009070551330261771</v>
+        <v>0.009113891950934382</v>
       </c>
     </row>
     <row r="15">
@@ -1149,35 +1149,35 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.03866578555558023</v>
+        <v>0.03835823872978002</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02986874291955333</v>
+        <v>0.03072403658651847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03906394153138389</v>
+        <v>0.0443013053634236</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01326133434851703</v>
+        <v>0.01139076051838765</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.01385241366818861</v>
+        <v>0.01524798643558254</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03756843684370634</v>
+        <v>0.03168113277687732</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.006360968430082383</v>
+        <v>0.006785526116396554</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01980944466484695</v>
+        <v>0.0200485544012875</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01870792117653974</v>
+        <v>0.01761824895621549</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03135138919129196</v>
+        <v>0.02904377730248301</v>
       </c>
     </row>
     <row r="16">
@@ -1201,7 +1201,7 @@
         <v>0.01799831436493526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04152565879476401</v>
+        <v>0.041525658794764</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.002550335505575362</v>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007285563186144901</v>
+        <v>0.007361150475353282</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001898633478857745</v>
+        <v>0.001926148736335701</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007142227611985305</v>
+        <v>0.008642624188926376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02195952084543952</v>
+        <v>0.02391702142050255</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01154269831559731</v>
+        <v>0.01177356409854914</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00465300552572957</v>
+        <v>0.004927265273591478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.001870628466297292</v>
+        <v>0.00115318624367106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00580035418846746</v>
+        <v>0.005731746901297689</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02256527614242486</v>
+        <v>0.02264800482485499</v>
       </c>
     </row>
     <row r="18">
@@ -1280,40 +1280,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03827289167754343</v>
+        <v>0.03806135058588943</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03065777992834587</v>
+        <v>0.02727501136437678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03605736398021119</v>
+        <v>0.03748158671467425</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0672832067433685</v>
+        <v>0.06648452783903785</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01280104683995501</v>
+        <v>0.01028255416113134</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01136178290161704</v>
+        <v>0.01034933345643466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02124079503790266</v>
+        <v>0.02145296711831406</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05469833428189042</v>
+        <v>0.05318860219400166</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02017347887608922</v>
+        <v>0.02108757783784898</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01559240082023459</v>
+        <v>0.01502270812552475</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0224281746972527</v>
+        <v>0.02202515085898174</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05488783616235575</v>
+        <v>0.05621519068596179</v>
       </c>
     </row>
     <row r="19">
@@ -1337,7 +1337,7 @@
         <v>0.002872904344999366</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02354693665868037</v>
+        <v>0.02354693665868038</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0.002842127955481847</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.005789705916873379</v>
+        <v>0.005789705916873378</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.006202906184067056</v>
+        <v>0.006039563231941107</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01060606564454016</v>
+        <v>0.01001349901861428</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
@@ -1391,13 +1391,13 @@
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.001530637014988451</v>
+        <v>0.002828346439637774</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.00882595786053068</v>
+        <v>0.008534680698632878</v>
       </c>
     </row>
     <row r="21">
@@ -1409,31 +1409,31 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.0442880405231277</v>
+        <v>0.0422859657853417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01762237543228485</v>
+        <v>0.01443358746095425</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04902488232438883</v>
+        <v>0.04497098649583131</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.01415424991521701</v>
+        <v>0.01427580889586986</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03479662500032792</v>
+        <v>0.03858248075020036</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.01794974858579945</v>
+        <v>0.01958716621096211</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.009773700678594467</v>
+        <v>0.01003539424843514</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03466059616325139</v>
+        <v>0.03458991749038619</v>
       </c>
     </row>
     <row r="22">
@@ -1457,7 +1457,7 @@
         <v>0.003548045625365132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02230694350210351</v>
+        <v>0.02230694350210352</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.005145866095676083</v>
+        <v>0.005079336985402896</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.007801909588629565</v>
+        <v>0.007565680017354024</v>
       </c>
     </row>
     <row r="24">
@@ -1530,34 +1530,34 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01967719410746654</v>
+        <v>0.02422248479788616</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04792738108874615</v>
+        <v>0.04448154330896031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02043160177101871</v>
+        <v>0.01910987663600567</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05372312672127518</v>
+        <v>0.05345249700088388</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.08716029031912108</v>
+        <v>0.07454761491199323</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01001818344269801</v>
+        <v>0.009317972004863079</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01797201000046942</v>
+        <v>0.01780771962454498</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.007811095346536793</v>
+        <v>0.008044992273115122</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04643048239882851</v>
+        <v>0.05149432368703061</v>
       </c>
     </row>
     <row r="25">
@@ -1593,7 +1593,7 @@
         <v>0.004764510512152104</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.01857217496712687</v>
+        <v>0.01857217496712686</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.005247711592209641</v>
@@ -1605,7 +1605,7 @@
         <v>0.009463780512459309</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02251614174435218</v>
+        <v>0.02251614174435219</v>
       </c>
     </row>
     <row r="26">
@@ -1616,40 +1616,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01458988868132487</v>
+        <v>0.01473616618785992</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01100668276237278</v>
+        <v>0.01052146857952955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01740687539016688</v>
+        <v>0.01765908853092992</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0005601107140409108</v>
+        <v>0.0005611104118137482</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.002924139433460672</v>
+        <v>0.002859876747790308</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0106850183987965</v>
+        <v>0.01066764722450474</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.007859928362435972</v>
+        <v>0.007658755628866626</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.007262377197038893</v>
+        <v>0.007441595248495876</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01732933819817283</v>
+        <v>0.01693423173424262</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02484559453478931</v>
+        <v>0.02478404426168417</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01917639135806484</v>
+        <v>0.01930128611607264</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03338830762963848</v>
+        <v>0.03347910747208128</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.003468477009389347</v>
+        <v>0.003165040112038954</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.007567139068040416</v>
+        <v>0.007582154417295484</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03131233246720073</v>
+        <v>0.02976064351388362</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01338966741313569</v>
+        <v>0.01300722602667501</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01212264244503155</v>
+        <v>0.0121205847405442</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02941075561889078</v>
+        <v>0.02934439611852979</v>
       </c>
     </row>
     <row r="28">
@@ -1967,40 +1967,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2527</v>
+        <v>2340</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8457</v>
+        <v>8723</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2075</v>
+        <v>2084</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1699</v>
+        <v>1676</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4729</v>
+        <v>4803</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11938</v>
+        <v>12069</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4180</v>
+        <v>4142</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2226</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="7">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13769</v>
+        <v>13557</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24553</v>
+        <v>23127</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13361</v>
+        <v>12575</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9610</v>
+        <v>9575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10056</v>
+        <v>9744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9448</v>
+        <v>10350</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7893</v>
+        <v>8317</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16299</v>
+        <v>16579</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18185</v>
+        <v>19480</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27704</v>
+        <v>28475</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17204</v>
+        <v>16896</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18673</v>
+        <v>18847</v>
       </c>
     </row>
     <row r="8">
@@ -2147,38 +2147,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2496</v>
+        <v>2822</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8189</v>
+        <v>8140</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7760</v>
+        <v>8302</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2855</v>
+        <v>2753</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>1834</v>
+        <v>1907</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3947</v>
+        <v>4366</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8059</v>
+        <v>8543</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12071</v>
+        <v>11297</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3420</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="11">
@@ -2189,38 +2189,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13084</v>
+        <v>14163</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23445</v>
+        <v>23050</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22195</v>
+        <v>23048</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18587</v>
+        <v>18058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9149</v>
+        <v>9780</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>9780</v>
+        <v>11179</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5195</v>
+        <v>4841</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17624</v>
+        <v>17259</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23547</v>
+        <v>24383</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>28322</v>
+        <v>29190</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19874</v>
+        <v>19472</v>
       </c>
     </row>
     <row r="12">
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1772</v>
+        <v>1858</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7053</v>
+        <v>7504</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3858</v>
+        <v>3747</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2245</v>
+        <v>2266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2345,16 +2345,16 @@
         <v>470</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2137</v>
+        <v>2106</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7435</v>
+        <v>6931</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4824</v>
+        <v>5120</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3228</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="15">
@@ -2365,38 +2365,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10713</v>
+        <v>9936</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21858</v>
+        <v>22354</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14645</v>
+        <v>15381</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12493</v>
+        <v>13263</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5771</v>
+        <v>6096</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>5280</v>
+        <v>6353</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6581</v>
+        <v>5749</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12192</v>
+        <v>11768</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22248</v>
+        <v>21741</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17830</v>
+        <v>17436</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>14237</v>
+        <v>15365</v>
       </c>
     </row>
     <row r="16">
@@ -2500,35 +2500,35 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>6422</v>
+        <v>6067</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4354</v>
+        <v>4948</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2713</v>
+        <v>2864</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6196</v>
+        <v>6124</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6970</v>
+        <v>6845</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5056</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="19">
@@ -2540,35 +2540,35 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>23765</v>
+        <v>23576</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19297</v>
+        <v>19849</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13663</v>
+        <v>15495</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6838</v>
+        <v>5874</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>8991</v>
+        <v>9897</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7803</v>
+        <v>6580</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6582</v>
+        <v>7022</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>24382</v>
+        <v>24676</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24229</v>
+        <v>22818</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>17477</v>
+        <v>16191</v>
       </c>
     </row>
     <row r="20">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2817</v>
+        <v>2847</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3413</v>
+        <v>4130</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6135</v>
+        <v>6681</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3679</v>
+        <v>3896</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1641</v>
+        <v>1012</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5654</v>
+        <v>5587</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9643</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="23">
@@ -2715,40 +2715,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14801</v>
+        <v>14719</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13165</v>
+        <v>11713</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17232</v>
+        <v>17913</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18796</v>
+        <v>18573</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5171</v>
+        <v>4154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5088</v>
+        <v>4634</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10553</v>
+        <v>10659</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8093</v>
+        <v>7870</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15951</v>
+        <v>16674</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13678</v>
+        <v>13178</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>21862</v>
+        <v>21469</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>23455</v>
+        <v>24022</v>
       </c>
     </row>
     <row r="24">
@@ -2852,13 +2852,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1922</v>
+        <v>1871</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2196</v>
+        <v>2074</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
@@ -2870,13 +2870,13 @@
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>1016</v>
+        <v>1877</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2524</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="27">
@@ -2888,31 +2888,31 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>13720</v>
+        <v>13100</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5892</v>
+        <v>4826</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10153</v>
+        <v>9313</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>5347</v>
+        <v>5393</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2745</v>
+        <v>3044</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>11915</v>
+        <v>13002</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>6960</v>
+        <v>7146</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9913</v>
+        <v>9892</v>
       </c>
     </row>
     <row r="28">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1091</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="31">
@@ -3053,34 +3053,34 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4130</v>
+        <v>5084</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11975</v>
+        <v>11114</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5251</v>
+        <v>4911</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5896</v>
+        <v>5866</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>2625</v>
+        <v>2245</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5448</v>
+        <v>5067</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>11481</v>
+        <v>11376</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5133</v>
+        <v>5287</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6494</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="32">
@@ -3183,40 +3183,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>49996</v>
+        <v>50498</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>37361</v>
+        <v>35714</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>29127</v>
+        <v>29549</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>10365</v>
+        <v>10137</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>9577</v>
+        <v>9562</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>54902</v>
+        <v>53497</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>50393</v>
+        <v>51636</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>44530</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="35">
@@ -3227,40 +3227,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>85140</v>
+        <v>84929</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>65091</v>
+        <v>65515</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>55869</v>
+        <v>56021</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>12342</v>
+        <v>11262</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>26822</v>
+        <v>26875</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>28066</v>
+        <v>26675</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>93528</v>
+        <v>90857</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>84118</v>
+        <v>84103</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>75575</v>
+        <v>75404</v>
       </c>
     </row>
     <row r="36">
